--- a/data/outputs/OR_altmetric/31.xlsx
+++ b/data/outputs/OR_altmetric/31.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE36"/>
+  <dimension ref="A1:CF36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1015,6 +1020,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1256,6 +1264,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1501,6 +1512,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1742,6 +1756,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1983,6 +2000,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2220,6 +2240,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2459,6 +2482,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,6 +2696,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2907,6 +2936,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3140,6 +3172,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3381,6 +3416,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3626,6 +3664,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3859,6 +3900,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4092,6 +4136,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4323,6 +4370,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,6 +4592,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4759,6 +4812,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4976,6 +5032,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5193,6 +5252,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5414,6 +5476,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5637,6 +5702,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5856,6 +5924,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6073,6 +6144,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6318,6 +6392,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6559,6 +6636,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6800,6 +6880,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7033,6 +7116,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7280,6 +7366,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7499,6 +7588,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7740,6 +7832,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7981,6 +8076,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8222,6 +8320,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8459,6 +8560,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8696,6 +8800,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8937,6 +9044,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
